--- a/WEB DB.xlsx
+++ b/WEB DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t>회원</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -344,26 +344,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>COUNT( )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUM( )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AVG( )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIN( )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX( )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(255)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -459,6 +439,38 @@
   </si>
   <si>
     <t>과목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항분석명세서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리보드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB구축</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +729,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,13 +759,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -788,13 +803,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -851,13 +866,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -914,13 +929,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5954</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1200150</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -977,13 +992,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1021,13 +1036,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1431,32 +1446,32 @@
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="9"/>
       <c r="C7" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1525,19 +1540,19 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -1614,22 +1629,22 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -1656,7 +1671,7 @@
     <row r="21" spans="2:8">
       <c r="B21" s="9"/>
       <c r="C21" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -1714,7 +1729,7 @@
         <v>38</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>13</v>
@@ -1731,25 +1746,25 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -1760,7 +1775,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -1785,13 +1800,13 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -1815,13 +1830,13 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -1859,7 +1874,7 @@
         <v>64</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -1876,7 +1891,7 @@
         <v>61</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -1884,7 +1899,7 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>65</v>
@@ -1893,7 +1908,7 @@
         <v>66</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -1902,10 +1917,10 @@
     <row r="38" spans="2:8">
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -1969,92 +1984,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="C6" s="2" t="s">
+    <row r="2" spans="3:11">
+      <c r="I2" s="2"/>
+      <c r="J2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5" t="s">
         <v>109</v>
       </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="26" t="s">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="I8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="I10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="I12" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
